--- a/ResultadoEleicoesDistritos/PORTALEGRE_PONTE DE SOR.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_PONTE DE SOR.xlsx
@@ -597,64 +597,64 @@
         <v>4097</v>
       </c>
       <c r="H2" t="n">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I2" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J2" t="n">
-        <v>1711</v>
+        <v>1688</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="n">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S2" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="T2" t="n">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="U2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V2" t="n">
-        <v>2619</v>
+        <v>2693</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2586</v>
+        <v>2593</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
